--- a/ExcelTemplate/Demo.xlsx
+++ b/ExcelTemplate/Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy\Desktop\Clone lại\BanVeChuyenBay\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0DA2B2-2A80-4A46-B695-7EE35CE67228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9C65C0-2B4D-4612-A877-A4644304F666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qPEuou7NqJ5Cs4CvsT5caYsTqk/VOrgrRXIVpc7bbP0PKNmbOquV4ALlkK9E33qSBbKdCII3BWxZsaYIppvuDQ==" workbookSaltValue="UITg+foSzclGrDrbdCSK5Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t>Ngày bay</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>_Hạng nhất_75-Thương gia_22</t>
+  </si>
+  <si>
+    <t>_DIN_15:HaHa-THD_20:Hihi</t>
+  </si>
+  <si>
+    <t>_DIN_15:HaHa-THD_20:Lêu lêu</t>
+  </si>
+  <si>
+    <t>_DIN_15:HaHa-THD_20:Run quá</t>
+  </si>
+  <si>
+    <t>_DIN_15:HaHa-THD_20:Khóc</t>
   </si>
 </sst>
 </file>
@@ -519,33 +531,33 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -850,28 +862,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="20.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -926,16 +938,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -990,16 +1002,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -1054,236 +1066,236 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="G13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="D14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="25" t="s">
+      <c r="G14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="D16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="25" t="s">
+      <c r="G16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="25" t="s">
+      <c r="D17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="G17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="D18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="G18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="25" t="s">
+      <c r="D19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="17" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ExcelTemplate/Demo.xlsx
+++ b/ExcelTemplate/Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy\Desktop\Clone lại\BanVeChuyenBay\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9C65C0-2B4D-4612-A877-A4644304F666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0DA2B2-2A80-4A46-B695-7EE35CE67228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qPEuou7NqJ5Cs4CvsT5caYsTqk/VOrgrRXIVpc7bbP0PKNmbOquV4ALlkK9E33qSBbKdCII3BWxZsaYIppvuDQ==" workbookSaltValue="UITg+foSzclGrDrbdCSK5Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
   <si>
     <t>Ngày bay</t>
   </si>
@@ -186,18 +186,6 @@
   </si>
   <si>
     <t>_Hạng nhất_75-Thương gia_22</t>
-  </si>
-  <si>
-    <t>_DIN_15:HaHa-THD_20:Hihi</t>
-  </si>
-  <si>
-    <t>_DIN_15:HaHa-THD_20:Lêu lêu</t>
-  </si>
-  <si>
-    <t>_DIN_15:HaHa-THD_20:Run quá</t>
-  </si>
-  <si>
-    <t>_DIN_15:HaHa-THD_20:Khóc</t>
   </si>
 </sst>
 </file>
@@ -531,33 +519,33 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -862,28 +850,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="20.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -938,16 +926,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -1002,16 +990,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -1066,236 +1054,236 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>46</v>
+      <c r="H11" s="25" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="25" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="25" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>47</v>
+      <c r="H14" s="25" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="25" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="25" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>48</v>
+      <c r="H17" s="25" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>49</v>
+      <c r="H18" s="25" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="25" t="s">
         <v>31</v>
       </c>
     </row>
